--- a/data/hotels_by_city/Dallas/Dallas_shard_654.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_654.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,219 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r582472881-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>12204410</t>
+  </si>
+  <si>
+    <t>582472881</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while my husband was on business in Dallas. Loved the hotel and the layout of the two rooms. Very comfortable, clean, and a good assortment for breakfast and very friendly staff. The only thing we didn't like is they don't have luggage holders so your suitcase is either laying on the floor or on the couch in the other room which takes up your couch sitting space. Other than that it was a good experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at Residence Inn Dallas Downtown, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while my husband was on business in Dallas. Loved the hotel and the layout of the two rooms. Very comfortable, clean, and a good assortment for breakfast and very friendly staff. The only thing we didn't like is they don't have luggage holders so your suitcase is either laying on the floor or on the couch in the other room which takes up your couch sitting space. Other than that it was a good experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r581232623-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>581232623</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Quality rooms with city views</t>
+  </si>
+  <si>
+    <t>In the area on business.  Stayed one night, on the 21st floor.  Had a great view of the city and the lights.  The room was great, everything you could ask for.  I'm sorry I didn't have more time to stay and enjoy the amenities, I just didn't have time to check the whole facility out.    The check in was simple and fast.  The complimentary breakfast was most adequate with lots of selections.  I noticed a little road noise from some noisy motorcycles, but that was it.  I'd definitely stay here again in the future.  Plenty of restaurants in the area within walking distance too.MoreShow less</t>
+  </si>
+  <si>
+    <t>In the area on business.  Stayed one night, on the 21st floor.  Had a great view of the city and the lights.  The room was great, everything you could ask for.  I'm sorry I didn't have more time to stay and enjoy the amenities, I just didn't have time to check the whole facility out.    The check in was simple and fast.  The complimentary breakfast was most adequate with lots of selections.  I noticed a little road noise from some noisy motorcycles, but that was it.  I'd definitely stay here again in the future.  Plenty of restaurants in the area within walking distance too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r572588876-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>572588876</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>This place is great, only a couple issues while I stayed here</t>
+  </si>
+  <si>
+    <t>Overall, this place is the new standard for urban, center city Residence Inns.  I have only 2 issues for this place:  the water pressure is light, so light it isn't acceptable for a new, modern hotel.  My other problem is the aggressive nature of my housekeeper.  I had a Do Not Disturb sign on my door and an authorized 2 PM Late Check Out, but yet twice on my check out day, the same housekeeper ignored my request and knocked once or twice on the door and proceeded into my room.  Completely unacceptable!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r568343375-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>568343375</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my...I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my last day when I'm clearly checking out, housekeeping was making rounds early in the morning knocking on doors I presume to find rooms to service but I didn't need it as I was checking out.  Made me scratch my head in wonder.  Nice location I would stay again if in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my...I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my last day when I'm clearly checking out, housekeeping was making rounds early in the morning knocking on doors I presume to find rooms to service but I didn't need it as I was checking out.  Made me scratch my head in wonder.  Nice location I would stay again if in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r567794004-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>567794004</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Very modern</t>
+  </si>
+  <si>
+    <t>Valet parking because no parking deck- website doesn’t tell you.  Chased us down because they want you to leave your keys with them while you check in.  Multiple hotels using the same service.  Room was huge for a studio &amp; very updated.  Very comfortable room until 2:30am and the room next door occupants returned &amp; proceeded to party.  Called front desk-they said that they would send security up.  No- 15 minutes went by &amp; my boyfriend called this time &amp; finally 20 minutes later they quieted down.  Tried to call valet the next morning-no answer so we trekked downstairs &amp; they said my car was being brought to us. But waited a few minutes &amp; I’m wondering how since we never got anyone on the phone.....I see my keys hanging.  Not cool.  Weekend &amp; breakfast was supposed to be until 10- nope was closed at 9:30! Not good folks! Close to American Airlines Center so that was a plus. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Valet parking because no parking deck- website doesn’t tell you.  Chased us down because they want you to leave your keys with them while you check in.  Multiple hotels using the same service.  Room was huge for a studio &amp; very updated.  Very comfortable room until 2:30am and the room next door occupants returned &amp; proceeded to party.  Called front desk-they said that they would send security up.  No- 15 minutes went by &amp; my boyfriend called this time &amp; finally 20 minutes later they quieted down.  Tried to call valet the next morning-no answer so we trekked downstairs &amp; they said my car was being brought to us. But waited a few minutes &amp; I’m wondering how since we never got anyone on the phone.....I see my keys hanging.  Not cool.  Weekend &amp; breakfast was supposed to be until 10- nope was closed at 9:30! Not good folks! Close to American Airlines Center so that was a plus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r567130528-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>567130528</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Made Traveling with 2 babies easy!</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and the staff was awesome!  We had a double queen room that was perfect for traveling with a 4 month old and 10 month old.  The room had a full size microwave that was helpful for sterilizing bottles.  The room was also large enough to accommodate 2 pack and plays with plenty of room to spare...in fact there was a perfect alcove off the kitchen that housed the pack and plays perfectly and we could still watch TV once the babies were asleep.  A clean/safe hotel room that can accommodate 3 women, 2 babies, luggage, 2 pack and plays, 2 full size strollers, a play mat, and just all the baby stuff without feeling claustrophobic definitely gets 5 stars from me! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and the staff was awesome!  We had a double queen room that was perfect for traveling with a 4 month old and 10 month old.  The room had a full size microwave that was helpful for sterilizing bottles.  The room was also large enough to accommodate 2 pack and plays with plenty of room to spare...in fact there was a perfect alcove off the kitchen that housed the pack and plays perfectly and we could still watch TV once the babies were asleep.  A clean/safe hotel room that can accommodate 3 women, 2 babies, luggage, 2 pack and plays, 2 full size strollers, a play mat, and just all the baby stuff without feeling claustrophobic definitely gets 5 stars from me! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r559565685-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>559565685</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Volleyball tournament visit</t>
+  </si>
+  <si>
+    <t>My kids and I stayed here for 2 nights during a volleyball tournament at the convention center (15 min walk). The room was great, very contemporary and extremely clean. Lobby areas were very open and spacious and the included breakfast was plentiful. The only reason I gave this hotel 4 stars is because the shower did this funky rotation of hot and cold water so I never got a completely hot shower. Not sure if it's a water saving technique or not but it was annoying and definitely got me out of the shower quicker than normal. Other than that, the hotel was perfect and I'd stay again. Valet was great too!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>AC Hotel D, Guest Relations Manager at Residence Inn Dallas Downtown, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>My kids and I stayed here for 2 nights during a volleyball tournament at the convention center (15 min walk). The room was great, very contemporary and extremely clean. Lobby areas were very open and spacious and the included breakfast was plentiful. The only reason I gave this hotel 4 stars is because the shower did this funky rotation of hot and cold water so I never got a completely hot shower. Not sure if it's a water saving technique or not but it was annoying and definitely got me out of the shower quicker than normal. Other than that, the hotel was perfect and I'd stay again. Valet was great too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r547163100-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>547163100</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Modern, clean, friendly - but don't expect an upgrade</t>
+  </si>
+  <si>
+    <t>New hotel that's not your typical residence inn, much nicer. The rooms are comfortable but seemed smaller than other residence inn's. The entrance is confusing because it's next to a new AC hotel. My only complaint as a lifetime platinum member is they said they upgraded my room, they definitely did not. It was exactly the king studio I paid for and was small. My friend, who doesn't have status had a much larger room but booked the same as I did. Third and final time Marriott has lied about upgrading, time to end my loyalty. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>New hotel that's not your typical residence inn, much nicer. The rooms are comfortable but seemed smaller than other residence inn's. The entrance is confusing because it's next to a new AC hotel. My only complaint as a lifetime platinum member is they said they upgraded my room, they definitely did not. It was exactly the king studio I paid for and was small. My friend, who doesn't have status had a much larger room but booked the same as I did. Third and final time Marriott has lied about upgrading, time to end my loyalty. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r544091311-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>544091311</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Most Elegant Residence Inn Ever</t>
+  </si>
+  <si>
+    <t>Residence Inn is my favorite Marriott brand because I'm a miser. I like not paying for parking or breakfast (and sometimes dinner &amp; happy hour!). My spouse prefers JW, Ritz-Carlton, etc. but I think they nickel &amp; dime you to death. This Residence Inn charges for parking (valet, which is nice) at least as of November, 2017. It may be that they will change this policy when they finish with their garage construction project. Breakfast is included. Typical fruit, eggs, sausage, bacon, spinach, yogurt, and lots of carb choices. Good tea.Since it shares space with the AC Hotel, it's a fresh, elegant space. The rooms have trendy furniture &amp; surfaces. The staff was SUPERLATIVE with meeting my annoying requests. Marriott just seems to keep outdoing itself with its personnel. Do allow plenty of time for them to fetch your car before you head to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Residence Inn is my favorite Marriott brand because I'm a miser. I like not paying for parking or breakfast (and sometimes dinner &amp; happy hour!). My spouse prefers JW, Ritz-Carlton, etc. but I think they nickel &amp; dime you to death. This Residence Inn charges for parking (valet, which is nice) at least as of November, 2017. It may be that they will change this policy when they finish with their garage construction project. Breakfast is included. Typical fruit, eggs, sausage, bacon, spinach, yogurt, and lots of carb choices. Good tea.Since it shares space with the AC Hotel, it's a fresh, elegant space. The rooms have trendy furniture &amp; surfaces. The staff was SUPERLATIVE with meeting my annoying requests. Marriott just seems to keep outdoing itself with its personnel. Do allow plenty of time for them to fetch your car before you head to the airport.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +858,553 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_654.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_654.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Shannon M</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I stayed at this hotel while my husband was on business in Dallas. Loved the hotel and the layout of the two rooms. Very comfortable, clean, and a good assortment for breakfast and very friendly staff. The only thing we didn't like is they don't have luggage holders so your suitcase is either laying on the floor or on the couch in the other room which takes up your couch sitting space. Other than that it was a good experience. More</t>
   </si>
   <si>
+    <t>Brian H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r581232623-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>In the area on business.  Stayed one night, on the 21st floor.  Had a great view of the city and the lights.  The room was great, everything you could ask for.  I'm sorry I didn't have more time to stay and enjoy the amenities, I just didn't have time to check the whole facility out.    The check in was simple and fast.  The complimentary breakfast was most adequate with lots of selections.  I noticed a little road noise from some noisy motorcycles, but that was it.  I'd definitely stay here again in the future.  Plenty of restaurants in the area within walking distance too.More</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r572588876-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>kokonutkroozer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r568343375-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my...I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my last day when I'm clearly checking out, housekeeping was making rounds early in the morning knocking on doors I presume to find rooms to service but I didn't need it as I was checking out.  Made me scratch my head in wonder.  Nice location I would stay again if in town.More</t>
   </si>
   <si>
+    <t>Roitz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r567794004-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Valet parking because no parking deck- website doesn’t tell you.  Chased us down because they want you to leave your keys with them while you check in.  Multiple hotels using the same service.  Room was huge for a studio &amp; very updated.  Very comfortable room until 2:30am and the room next door occupants returned &amp; proceeded to party.  Called front desk-they said that they would send security up.  No- 15 minutes went by &amp; my boyfriend called this time &amp; finally 20 minutes later they quieted down.  Tried to call valet the next morning-no answer so we trekked downstairs &amp; they said my car was being brought to us. But waited a few minutes &amp; I’m wondering how since we never got anyone on the phone.....I see my keys hanging.  Not cool.  Weekend &amp; breakfast was supposed to be until 10- nope was closed at 9:30! Not good folks! Close to American Airlines Center so that was a plus. More</t>
   </si>
   <si>
+    <t>erinkathrynk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r567130528-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>The hotel was very clean and the staff was awesome!  We had a double queen room that was perfect for traveling with a 4 month old and 10 month old.  The room had a full size microwave that was helpful for sterilizing bottles.  The room was also large enough to accommodate 2 pack and plays with plenty of room to spare...in fact there was a perfect alcove off the kitchen that housed the pack and plays perfectly and we could still watch TV once the babies were asleep.  A clean/safe hotel room that can accommodate 3 women, 2 babies, luggage, 2 pack and plays, 2 full size strollers, a play mat, and just all the baby stuff without feeling claustrophobic definitely gets 5 stars from me! More</t>
   </si>
   <si>
+    <t>Tanisha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r559565685-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>My kids and I stayed here for 2 nights during a volleyball tournament at the convention center (15 min walk). The room was great, very contemporary and extremely clean. Lobby areas were very open and spacious and the included breakfast was plentiful. The only reason I gave this hotel 4 stars is because the shower did this funky rotation of hot and cold water so I never got a completely hot shower. Not sure if it's a water saving technique or not but it was annoying and definitely got me out of the shower quicker than normal. Other than that, the hotel was perfect and I'd stay again. Valet was great too!More</t>
   </si>
   <si>
+    <t>Tyler S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r547163100-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -337,6 +361,9 @@
   </si>
   <si>
     <t>New hotel that's not your typical residence inn, much nicer. The rooms are comfortable but seemed smaller than other residence inn's. The entrance is confusing because it's next to a new AC hotel. My only complaint as a lifetime platinum member is they said they upgraded my room, they definitely did not. It was exactly the king studio I paid for and was small. My friend, who doesn't have status had a much larger room but booked the same as I did. Third and final time Marriott has lied about upgrading, time to end my loyalty. More</t>
+  </si>
+  <si>
+    <t>sperry_twiggins</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r544091311-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
@@ -862,43 +889,47 @@
       <c r="A2" t="n">
         <v>66244</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>5544</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -910,56 +941,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66244</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -975,56 +1010,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66244</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175680</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1042,50 +1081,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66244</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175681</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1099,50 +1142,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66244</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>3064</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1156,50 +1203,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66244</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169586</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1213,50 +1264,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66244</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>35570</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1268,56 +1323,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66244</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>8197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1329,56 +1388,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66244</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175682</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1396,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_654.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_654.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,416 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Shannon M</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r606714194-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>12204410</t>
+  </si>
+  <si>
+    <t>606714194</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Your best bet for downtown Dallas!</t>
+  </si>
+  <si>
+    <t>Very nice, modern, and upscale decor. Convenient to everything. Affordable. Great staff. Great place to stay! The room was quiet and laid out very well. Kitchen was stocked with everything you could possibly need. I would definitely stay again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r605732711-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605732711</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Valet only, and there can be a line for it</t>
+  </si>
+  <si>
+    <t>The Residence Inn, AC, and Hampton Inn hotels all share a valet service.  There is no circular drive in front, you have to get in line for the 4 parking spaces available to pull into for the valet line.  The line can be so long that it  forms before the intersection of the block where the hotels are located.  Needless to say, it was pandemonium trying to get the car parked, and it was $35 (plus tip).
+Then in the morning, when there no cars around (Sunday), there were also no valet staff to be seen in front of the R.I., just a number of unwelcome panhandlers that I had to scare off.  Someone finally pointed out that the valet stand is actually in the lobby of the Hampton Inn.  We would never have thought to look there.  But once we found the stand, our car appeared pretty quickly.  
+The AC by Marriott and the Residence Inn share a lobby/bar area.  When you first enter, you are greeted by loud, hip music and that awful scented stuff they put in the air.  The elevators are like nothing I've ever seen before, and there are no instructions on how to use them, so we had to find someone to ask.  They are very high tech - you enter the floor you want on the key pad, and it tells you which door to stand in front of.  Then there are no...The Residence Inn, AC, and Hampton Inn hotels all share a valet service.  There is no circular drive in front, you have to get in line for the 4 parking spaces available to pull into for the valet line.  The line can be so long that it  forms before the intersection of the block where the hotels are located.  Needless to say, it was pandemonium trying to get the car parked, and it was $35 (plus tip).Then in the morning, when there no cars around (Sunday), there were also no valet staff to be seen in front of the R.I., just a number of unwelcome panhandlers that I had to scare off.  Someone finally pointed out that the valet stand is actually in the lobby of the Hampton Inn.  We would never have thought to look there.  But once we found the stand, our car appeared pretty quickly.  The AC by Marriott and the Residence Inn share a lobby/bar area.  When you first enter, you are greeted by loud, hip music and that awful scented stuff they put in the air.  The elevators are like nothing I've ever seen before, and there are no instructions on how to use them, so we had to find someone to ask.  They are very high tech - you enter the floor you want on the key pad, and it tells you which door to stand in front of.  Then there are no buttons inside the elevator.  Kinda creepy at first, but we got used to it and they were very fast.  They were Schindler elevators, so they seemed reliable.The check in for the Residence Inn is actually on the second floor, and doesn't like much, It consisted of one guy behind a small table with a laptop.  He was great, though - he greeted me and acknowledged my gold status, then said, "Now let me look for an upgrade for you" without me having to beg.  I got one. Then he asked if I wanted a late check out, again without me having to bring it up.  I liked that.The room was in that new, sleek hip style that so many hotels are going to these days.  Oh, well.  I'm more of a traditionalist.  There was no carpeting, just a rug in the bedroom.  The kitchenette was adequate for some real cooking, and had a full sized fridge.  Not that I was going to cook anything.  There didn't seem to be an ice machine on my floor.  The room was spotless and the bed was comfortable.The bar was contemporary (ugh) and the music a little loud, but the bartender was friendly and the drink was fine.Breakfast was pretty good, a buffet with sausage, eggs , bagels, juice, etc.The hotel is right next to Neiman's flagship store.I was ok with the hotel, despite it being hip and trendy, but negotiating the line for the car valet was something I don't really want to mess with again, so I probably won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kellie A, General Manager at Residence Inn Dallas Downtown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The Residence Inn, AC, and Hampton Inn hotels all share a valet service.  There is no circular drive in front, you have to get in line for the 4 parking spaces available to pull into for the valet line.  The line can be so long that it  forms before the intersection of the block where the hotels are located.  Needless to say, it was pandemonium trying to get the car parked, and it was $35 (plus tip).
+Then in the morning, when there no cars around (Sunday), there were also no valet staff to be seen in front of the R.I., just a number of unwelcome panhandlers that I had to scare off.  Someone finally pointed out that the valet stand is actually in the lobby of the Hampton Inn.  We would never have thought to look there.  But once we found the stand, our car appeared pretty quickly.  
+The AC by Marriott and the Residence Inn share a lobby/bar area.  When you first enter, you are greeted by loud, hip music and that awful scented stuff they put in the air.  The elevators are like nothing I've ever seen before, and there are no instructions on how to use them, so we had to find someone to ask.  They are very high tech - you enter the floor you want on the key pad, and it tells you which door to stand in front of.  Then there are no...The Residence Inn, AC, and Hampton Inn hotels all share a valet service.  There is no circular drive in front, you have to get in line for the 4 parking spaces available to pull into for the valet line.  The line can be so long that it  forms before the intersection of the block where the hotels are located.  Needless to say, it was pandemonium trying to get the car parked, and it was $35 (plus tip).Then in the morning, when there no cars around (Sunday), there were also no valet staff to be seen in front of the R.I., just a number of unwelcome panhandlers that I had to scare off.  Someone finally pointed out that the valet stand is actually in the lobby of the Hampton Inn.  We would never have thought to look there.  But once we found the stand, our car appeared pretty quickly.  The AC by Marriott and the Residence Inn share a lobby/bar area.  When you first enter, you are greeted by loud, hip music and that awful scented stuff they put in the air.  The elevators are like nothing I've ever seen before, and there are no instructions on how to use them, so we had to find someone to ask.  They are very high tech - you enter the floor you want on the key pad, and it tells you which door to stand in front of.  Then there are no buttons inside the elevator.  Kinda creepy at first, but we got used to it and they were very fast.  They were Schindler elevators, so they seemed reliable.The check in for the Residence Inn is actually on the second floor, and doesn't like much, It consisted of one guy behind a small table with a laptop.  He was great, though - he greeted me and acknowledged my gold status, then said, "Now let me look for an upgrade for you" without me having to beg.  I got one. Then he asked if I wanted a late check out, again without me having to bring it up.  I liked that.The room was in that new, sleek hip style that so many hotels are going to these days.  Oh, well.  I'm more of a traditionalist.  There was no carpeting, just a rug in the bedroom.  The kitchenette was adequate for some real cooking, and had a full sized fridge.  Not that I was going to cook anything.  There didn't seem to be an ice machine on my floor.  The room was spotless and the bed was comfortable.The bar was contemporary (ugh) and the music a little loud, but the bartender was friendly and the drink was fine.Breakfast was pretty good, a buffet with sausage, eggs , bagels, juice, etc.The hotel is right next to Neiman's flagship store.I was ok with the hotel, despite it being hip and trendy, but negotiating the line for the car valet was something I don't really want to mess with again, so I probably won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r605454712-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605454712</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>IAFC Stay</t>
+  </si>
+  <si>
+    <t>It was an amazing visit to Dallas while staying at the Residence Marriot Downtown. It was our first time in Dallas and Manique was excellent at accommodating our last minute booking. It’s a pleasure to know that Marriot employees such pleasant and professional individuals. Everything at this hotel was above and beyond our expectation. The best breakfast by far we have had at any Marriot NationWIDE. The entire breakfast staff was exceptional as well, so polite and attentive. Will repeat on our next trip! Our room was impressive, spacious and all new furniture and decor. Definitely recommend it!️️️️️</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r605305385-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605305385</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Stayed here based on a recommendation from a friend and they didn't disappoint!  The staff and manager were very helpful when I came a little unprepared missing some bare essentials.   If I could make one suggestion, real maple syrup would be a nice touch.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r603355107-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>603355107</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service at the Residence Inn Downtown</t>
+  </si>
+  <si>
+    <t>We attended the Mary Kay Convention from 8/1 through 8/4/18 and we had an excellent experience at the Residence Inn Downtown.  Great service from valet to hotel staff. We will definitely stay at this hotel again in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r601551429-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>601551429</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I traveled to Dallas with a group for a Mary Kay business trip, and this hotel was fantastic. Brittany at the front desk was very friendly and super accommodating. All of the staff went above and beyond and the hotel was clean and new!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r600863101-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>600863101</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Overnight trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent one night in Dallas on a layover with family. This hotel is at a great location for exploring dallas. Rooms were clean and beds comfortable. Only con  was when we left early on the morning(5am) it took 10 minutes to find a staff member to check us </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r600133655-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>600133655</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow! Our annual convention is in Dallas. We have stayed at dozens of hotels. Residence Inn Downtown is heads above the rest!  Clean, great service, quiet! We will definitely stay here next year. Recommended to anyone. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r600010631-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>600010631</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Great people</t>
+  </si>
+  <si>
+    <t>I want to give Francis McDougall the upmost thanks. He was absolutely amazing and extremely professional. We need more people like him in hotels especially when as I am a corporate pilot and spend more than half my life in hotels. I also want to say that Jonn Binkle also went above and beyond the call of professionalism in his enthusiasm and great personality to both gentlemen. Thank you Marriott for having awesome employees. Tim Mcchesney</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r599431152-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>599431152</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Stunning Urban Hotel</t>
+  </si>
+  <si>
+    <t>Heads up this is a Downtown property so parking is never free anywhere Downtown.  The price of parking is the only subtle drawback but yet again,It’s right smack Downtown with limited space.  This hotel shares a space the AC hotel and share a bar and lounge area with live music on Thursday nights.  The rooms are thoughtfully laid out and so very spacious, it feels like you are in your own apartment Downtown.  The staff is ridiculously nice and ready to accommodate.  Heads up the front desk is on the second floor and the front desk probably could use a remodel seeing as how the laptops are chained the small front desk space the agents have to work with...but they made it work somehow.  Thanks for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Public Relations Manager at Residence Inn Dallas Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Heads up this is a Downtown property so parking is never free anywhere Downtown.  The price of parking is the only subtle drawback but yet again,It’s right smack Downtown with limited space.  This hotel shares a space the AC hotel and share a bar and lounge area with live music on Thursday nights.  The rooms are thoughtfully laid out and so very spacious, it feels like you are in your own apartment Downtown.  The staff is ridiculously nice and ready to accommodate.  Heads up the front desk is on the second floor and the front desk probably could use a remodel seeing as how the laptops are chained the small front desk space the agents have to work with...but they made it work somehow.  Thanks for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r597718960-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597718960</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Great for business travellers</t>
+  </si>
+  <si>
+    <t>I frequently stay at the Residence Inn in Dallas for business for a few key reasons. First, it's in a very convenient location -- walking distance to many office buildings, and highly accessible to Deep Ellum and other nearby attractions. Second, the rooms are clean and new, and the whole space is quiet (lobby is on floor two, so there's less nearby foot traffic). Finally, it's generally pretty affordable, especially considering the bonus of space &amp; in-room ammenities you get vs other Mariott properties in the area. Good staff is a nice bonus!MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Public Relations Manager at Residence Inn Dallas Downtown, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>I frequently stay at the Residence Inn in Dallas for business for a few key reasons. First, it's in a very convenient location -- walking distance to many office buildings, and highly accessible to Deep Ellum and other nearby attractions. Second, the rooms are clean and new, and the whole space is quiet (lobby is on floor two, so there's less nearby foot traffic). Finally, it's generally pretty affordable, especially considering the bonus of space &amp; in-room ammenities you get vs other Mariott properties in the area. Good staff is a nice bonus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r597379447-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597379447</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Two Day business trip</t>
+  </si>
+  <si>
+    <t>This hotel is in great shape, with all the amenities of a luxury type, but at really affordable rates. The rooms have everything you need to settle in if you want. It is also in walking and low price Uber or Lyft rates distance from everything downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in great shape, with all the amenities of a luxury type, but at really affordable rates. The rooms have everything you need to settle in if you want. It is also in walking and low price Uber or Lyft rates distance from everything downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r597168106-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597168106</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Beautiful, clean, and quiet hotel</t>
+  </si>
+  <si>
+    <t>I absolutely loved this hotel. It was very clean and quiet. My check-in was a breeze thanks to Brittany! She was so helpful and pleasant! There was a live band playing in the bar area when I arrived Thursday evening. It’s in the heart of downtown Dallas and everything was within walking distance. The valet drivers were so nice and helpful. I will definitely be back to visit this hotel on my next visit to Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>I absolutely loved this hotel. It was very clean and quiet. My check-in was a breeze thanks to Brittany! She was so helpful and pleasant! There was a live band playing in the bar area when I arrived Thursday evening. It’s in the heart of downtown Dallas and everything was within walking distance. The valet drivers were so nice and helpful. I will definitely be back to visit this hotel on my next visit to Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r596807265-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596807265</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Excellent stays.</t>
+  </si>
+  <si>
+    <t>I have been at the hotel since January of this year and I will not stay anywhere else. I am here on Business and it has been a wonderful experience. The staff is exceptional and the area is perfect or my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been at the hotel since January of this year and I will not stay anywhere else. I am here on Business and it has been a wonderful experience. The staff is exceptional and the area is perfect or my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r596215023-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596215023</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn in March for two nights for the first time and it was wonderful! It’s very modern and I felt right at home. Loved the cool elevators too! The staff were all very friendly and accommodating. Also, the breakfast was amazing. I will definitely stay there again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn in March for two nights for the first time and it was wonderful! It’s very modern and I felt right at home. Loved the cool elevators too! The staff were all very friendly and accommodating. Also, the breakfast was amazing. I will definitely stay there again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r592594323-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592594323</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay!</t>
+  </si>
+  <si>
+    <t>My wife and I were in the area for both business and pleasure. We stayed 3 nights on the 12th floor. The room was huge! More like a one bedroom apartment with a well equipped kitchenette, a dinning and living-room area. The bed was firm and cozy, the area quiet, so we had very restful nights. The gym is great too and well equipped. The staff was super friendly and eager to help - thank you! The complimentary breakfast was tasteful with plenty of fresh foods and variety. It is also within walking distance to several stores and dining areas. We'd absolutely stay here again in future.Andre HatchettMoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Public Relations Manager at Residence Inn Dallas Downtown, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I were in the area for both business and pleasure. We stayed 3 nights on the 12th floor. The room was huge! More like a one bedroom apartment with a well equipped kitchenette, a dinning and living-room area. The bed was firm and cozy, the area quiet, so we had very restful nights. The gym is great too and well equipped. The staff was super friendly and eager to help - thank you! The complimentary breakfast was tasteful with plenty of fresh foods and variety. It is also within walking distance to several stores and dining areas. We'd absolutely stay here again in future.Andre HatchettMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r591289294-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>591289294</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Superb! A new standard for Residence Inn properties!</t>
+  </si>
+  <si>
+    <t>I spent a week at this Residence Inn property attending a conference in May 2018. 
+It's a bit tricky to find the lobby since its shares elevators and entrances with the AC hotel, (another Marriott property), but aside from that, its a superb facility! It's brand new, and in my opinion one of the best values in downtown Dallas. 
+(Tip - The valet parking is shared with the AC hotel. So to avoid the valet parking wait in the morning, there is a self parking structure directly across the street from the hotel.  Or, better yet, directly behind the hotel is a $8 parking lot, where you can park overnight.) 
+The front desk team is super friendly and helpful with recommendations for dinner.
+Breakfast was exactly what I have come to expect from other stays at Residence Inn properties; with the usual hot and cold items, (self made waffles, oatmeal, fresh fruit, pastries, teas, juices, coffee etc.) No surprises, which I like. Just fresh food and plenty of it. Service was efficient, and very friendly with lots of smiling employees.
+The rooms are setup much like 1 bedroom apartments, with a separate room that houses the kitchenette, living room and a small eating area. The bedroom and bathroom are separate. The bed was firm but comfortable.  Bathroom was elegant, with upscale countertops and modern mirrors and flooring. Plenty of light. Shower even had a rainfall shower head, which is uncommon...I spent a week at this Residence Inn property attending a conference in May 2018. It's a bit tricky to find the lobby since its shares elevators and entrances with the AC hotel, (another Marriott property), but aside from that, its a superb facility! It's brand new, and in my opinion one of the best values in downtown Dallas. (Tip - The valet parking is shared with the AC hotel. So to avoid the valet parking wait in the morning, there is a self parking structure directly across the street from the hotel.  Or, better yet, directly behind the hotel is a $8 parking lot, where you can park overnight.) The front desk team is super friendly and helpful with recommendations for dinner.Breakfast was exactly what I have come to expect from other stays at Residence Inn properties; with the usual hot and cold items, (self made waffles, oatmeal, fresh fruit, pastries, teas, juices, coffee etc.) No surprises, which I like. Just fresh food and plenty of it. Service was efficient, and very friendly with lots of smiling employees.The rooms are setup much like 1 bedroom apartments, with a separate room that houses the kitchenette, living room and a small eating area. The bedroom and bathroom are separate. The bed was firm but comfortable.  Bathroom was elegant, with upscale countertops and modern mirrors and flooring. Plenty of light. Shower even had a rainfall shower head, which is uncommon for this level of property. (No tub.) The rooms was super quiet, and very comfortable. Overall, and excellent stay. I would definitely will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at Residence Inn Dallas Downtown, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>I spent a week at this Residence Inn property attending a conference in May 2018. 
+It's a bit tricky to find the lobby since its shares elevators and entrances with the AC hotel, (another Marriott property), but aside from that, its a superb facility! It's brand new, and in my opinion one of the best values in downtown Dallas. 
+(Tip - The valet parking is shared with the AC hotel. So to avoid the valet parking wait in the morning, there is a self parking structure directly across the street from the hotel.  Or, better yet, directly behind the hotel is a $8 parking lot, where you can park overnight.) 
+The front desk team is super friendly and helpful with recommendations for dinner.
+Breakfast was exactly what I have come to expect from other stays at Residence Inn properties; with the usual hot and cold items, (self made waffles, oatmeal, fresh fruit, pastries, teas, juices, coffee etc.) No surprises, which I like. Just fresh food and plenty of it. Service was efficient, and very friendly with lots of smiling employees.
+The rooms are setup much like 1 bedroom apartments, with a separate room that houses the kitchenette, living room and a small eating area. The bedroom and bathroom are separate. The bed was firm but comfortable.  Bathroom was elegant, with upscale countertops and modern mirrors and flooring. Plenty of light. Shower even had a rainfall shower head, which is uncommon...I spent a week at this Residence Inn property attending a conference in May 2018. It's a bit tricky to find the lobby since its shares elevators and entrances with the AC hotel, (another Marriott property), but aside from that, its a superb facility! It's brand new, and in my opinion one of the best values in downtown Dallas. (Tip - The valet parking is shared with the AC hotel. So to avoid the valet parking wait in the morning, there is a self parking structure directly across the street from the hotel.  Or, better yet, directly behind the hotel is a $8 parking lot, where you can park overnight.) The front desk team is super friendly and helpful with recommendations for dinner.Breakfast was exactly what I have come to expect from other stays at Residence Inn properties; with the usual hot and cold items, (self made waffles, oatmeal, fresh fruit, pastries, teas, juices, coffee etc.) No surprises, which I like. Just fresh food and plenty of it. Service was efficient, and very friendly with lots of smiling employees.The rooms are setup much like 1 bedroom apartments, with a separate room that houses the kitchenette, living room and a small eating area. The bedroom and bathroom are separate. The bed was firm but comfortable.  Bathroom was elegant, with upscale countertops and modern mirrors and flooring. Plenty of light. Shower even had a rainfall shower head, which is uncommon for this level of property. (No tub.) The rooms was super quiet, and very comfortable. Overall, and excellent stay. I would definitely will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r587045559-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>587045559</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE MOST FRIENDLY STAFF AND CLEAN PLEASE </t>
+  </si>
+  <si>
+    <t>I arrived 6/7/2018. A few issues I had (not with the staff or hotel, it was my rate) but the staff jumped on it and took care of my issue so fast it was unbelievable. The place was right downtown with plenty of things to do. The room was clean and up to date on everything even a little personal hand written note Saying “I hope you enjoy your stay” I thought that was a great touch. The audit staff is out of this world friendly and on top of everything. All in all I can’t say enough good things about this place. Down side they are fixing the parking garage, but there is $8.00 parking right behind the hotel for a lot cheaper than $32.00 parking with valet. Just a heads up. I will definitely book another stay there when I’m in town ! Thank you so much to all the residence inn staff for making me a New York gal feel at home! MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at Residence Inn Dallas Downtown, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>I arrived 6/7/2018. A few issues I had (not with the staff or hotel, it was my rate) but the staff jumped on it and took care of my issue so fast it was unbelievable. The place was right downtown with plenty of things to do. The room was clean and up to date on everything even a little personal hand written note Saying “I hope you enjoy your stay” I thought that was a great touch. The audit staff is out of this world friendly and on top of everything. All in all I can’t say enough good things about this place. Down side they are fixing the parking garage, but there is $8.00 parking right behind the hotel for a lot cheaper than $32.00 parking with valet. Just a heads up. I will definitely book another stay there when I’m in town ! Thank you so much to all the residence inn staff for making me a New York gal feel at home! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r583043605-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>583043605</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Fantastic property</t>
+  </si>
+  <si>
+    <t>The quirky check-in is worth the stay!  This is a beautiful hotel—rooms are new and clean and the staff is exceptionally helpful.  We stay in Downtown Dallas a lot and this is our favorite.  Might take a minute or two to figure out how to get to the reception on the second floor but everyone is super helpful and after that everything is seamless throughout your stay.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at Residence Inn Dallas Downtown, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>The quirky check-in is worth the stay!  This is a beautiful hotel—rooms are new and clean and the staff is exceptionally helpful.  We stay in Downtown Dallas a lot and this is our favorite.  Might take a minute or two to figure out how to get to the reception on the second floor but everyone is super helpful and after that everything is seamless throughout your stay.  Highly recommend.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r582472881-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>12204410</t>
-  </si>
-  <si>
     <t>582472881</t>
   </si>
   <si>
@@ -174,24 +569,9 @@
     <t>I stayed at this hotel while my husband was on business in Dallas. Loved the hotel and the layout of the two rooms. Very comfortable, clean, and a good assortment for breakfast and very friendly staff. The only thing we didn't like is they don't have luggage holders so your suitcase is either laying on the floor or on the couch in the other room which takes up your couch sitting space. Other than that it was a good experience. MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>ACHotelDallas, Manager at Residence Inn Dallas Downtown, responded to this reviewResponded 5 days ago</t>
-  </si>
-  <si>
-    <t>Responded 5 days ago</t>
-  </si>
-  <si>
     <t>I stayed at this hotel while my husband was on business in Dallas. Loved the hotel and the layout of the two rooms. Very comfortable, clean, and a good assortment for breakfast and very friendly staff. The only thing we didn't like is they don't have luggage holders so your suitcase is either laying on the floor or on the couch in the other room which takes up your couch sitting space. Other than that it was a good experience. More</t>
   </si>
   <si>
-    <t>Brian H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r581232623-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -210,9 +590,6 @@
     <t>In the area on business.  Stayed one night, on the 21st floor.  Had a great view of the city and the lights.  The room was great, everything you could ask for.  I'm sorry I didn't have more time to stay and enjoy the amenities, I just didn't have time to check the whole facility out.    The check in was simple and fast.  The complimentary breakfast was most adequate with lots of selections.  I noticed a little road noise from some noisy motorcycles, but that was it.  I'd definitely stay here again in the future.  Plenty of restaurants in the area within walking distance too.More</t>
   </si>
   <si>
-    <t>Viking94708</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r572588876-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,10 +608,40 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>kokonutkroozer</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r569165924-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>569165924</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Great property</t>
+  </si>
+  <si>
+    <t>Great property in a great location.  Just about a 10 minute walk to the convention center.  Brand new property that is a little hard to find since the lobby is on the second floor, above the AC hotel.  Rooms were big and extremely quiet.  I will be returning for a 2 week stay and can't think of a better place to stay.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r568978492-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>568978492</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Newer hotel in downtown.  First time staying at a Residence Inn.  King room was wonderful, spacious and comfortable, although they could make the bathroom a little bigger.  The hotel lobby is not on the ground floor, you actually have to go up to 2nd or 3rd floor (don't remember exactly) to get to the front desk.  This is the same floor that the daily breakfast is served.  The daily breakfast was great with plenty of options.  The hotel is centrally located and very walk-able.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r568343375-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
@@ -252,15 +659,9 @@
     <t>I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my...I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my last day when I'm clearly checking out, housekeeping was making rounds early in the morning knocking on doors I presume to find rooms to service but I didn't need it as I was checking out.  Made me scratch my head in wonder.  Nice location I would stay again if in town.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my...I needed a place to stay while attending a conference as the conference location was sold out.  This was just a half mile away and very easy short walk.  The property is new and the rooms were done very nicely.  Residence Inn is one of my favorite brands so I liked having the fridge and microwave and breakfast in the mornings.  The bed was a bit lumpy so that was a bit disappointing but I was still able to get a decent night's sleep (I generally don't sleep well while on travel).  There was also some noise carrying in from the hallway as I was closer to the elevator.  Not that bad after I put on some white noise.  I liked the bar table setup where I could eat breakfast and watch the news and the couch was also nice either for working on my laptop or watching netflix.  I like that you have the option to log into netflix and other services and watch from the tv screen.  The bathroom was very nice and the shower temp and pressure were perfect.  The only dilemma I had was that on the first day, I left for a good chunk of the day yet when I came back mid afternoon, my room was just getting serviced as I walked up to the door.  I went to work in the lobby and came back to a fresh room but then on my last day when I'm clearly checking out, housekeeping was making rounds early in the morning knocking on doors I presume to find rooms to service but I didn't need it as I was checking out.  Made me scratch my head in wonder.  Nice location I would stay again if in town.More</t>
   </si>
   <si>
-    <t>Roitz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r567794004-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -276,15 +677,9 @@
     <t>Valet parking because no parking deck- website doesn’t tell you.  Chased us down because they want you to leave your keys with them while you check in.  Multiple hotels using the same service.  Room was huge for a studio &amp; very updated.  Very comfortable room until 2:30am and the room next door occupants returned &amp; proceeded to party.  Called front desk-they said that they would send security up.  No- 15 minutes went by &amp; my boyfriend called this time &amp; finally 20 minutes later they quieted down.  Tried to call valet the next morning-no answer so we trekked downstairs &amp; they said my car was being brought to us. But waited a few minutes &amp; I’m wondering how since we never got anyone on the phone.....I see my keys hanging.  Not cool.  Weekend &amp; breakfast was supposed to be until 10- nope was closed at 9:30! Not good folks! Close to American Airlines Center so that was a plus. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Valet parking because no parking deck- website doesn’t tell you.  Chased us down because they want you to leave your keys with them while you check in.  Multiple hotels using the same service.  Room was huge for a studio &amp; very updated.  Very comfortable room until 2:30am and the room next door occupants returned &amp; proceeded to party.  Called front desk-they said that they would send security up.  No- 15 minutes went by &amp; my boyfriend called this time &amp; finally 20 minutes later they quieted down.  Tried to call valet the next morning-no answer so we trekked downstairs &amp; they said my car was being brought to us. But waited a few minutes &amp; I’m wondering how since we never got anyone on the phone.....I see my keys hanging.  Not cool.  Weekend &amp; breakfast was supposed to be until 10- nope was closed at 9:30! Not good folks! Close to American Airlines Center so that was a plus. More</t>
   </si>
   <si>
-    <t>erinkathrynk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r567130528-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,13 +695,58 @@
     <t>The hotel was very clean and the staff was awesome!  We had a double queen room that was perfect for traveling with a 4 month old and 10 month old.  The room had a full size microwave that was helpful for sterilizing bottles.  The room was also large enough to accommodate 2 pack and plays with plenty of room to spare...in fact there was a perfect alcove off the kitchen that housed the pack and plays perfectly and we could still watch TV once the babies were asleep.  A clean/safe hotel room that can accommodate 3 women, 2 babies, luggage, 2 pack and plays, 2 full size strollers, a play mat, and just all the baby stuff without feeling claustrophobic definitely gets 5 stars from me! MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>The hotel was very clean and the staff was awesome!  We had a double queen room that was perfect for traveling with a 4 month old and 10 month old.  The room had a full size microwave that was helpful for sterilizing bottles.  The room was also large enough to accommodate 2 pack and plays with plenty of room to spare...in fact there was a perfect alcove off the kitchen that housed the pack and plays perfectly and we could still watch TV once the babies were asleep.  A clean/safe hotel room that can accommodate 3 women, 2 babies, luggage, 2 pack and plays, 2 full size strollers, a play mat, and just all the baby stuff without feeling claustrophobic definitely gets 5 stars from me! More</t>
   </si>
   <si>
-    <t>Tanisha H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r565831548-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>565831548</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Manager totally unresponsive to problem</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite member and have been so for many years. I have to say this is the first time an issue I had has been totally ignored by the hotel manager. I reserved the room several weeks in advance and got to the hotel on a Mon night at about 6pm. This location is a little confusing as it shares space with an AC Hotel. The lobby is actually on the 2nd floor. I checked in and found my room, 1711, to be the first room outside the elevator lobby. I had to leave right away for a business dinner so did not pay any attention to it. Got back at 9 and went to bed only to get woken up immediately by what I thought was thunder. Turns out it was the elevators going up and down which it did until after midnight. I had to get up and be out of the hotel by 6:30 so when I went down in the morning there was no one at the Residence desk and a sign saying go to the AC lobby desk. I asked to speak to the Mgr and was told he/she was not in yet. The clerk gave me a card and told me she would have the Mgr call me. I never got a call and I have left 2 voicemails and sent an email and still no response.  This is the worst...I am a Platinum Elite member and have been so for many years. I have to say this is the first time an issue I had has been totally ignored by the hotel manager. I reserved the room several weeks in advance and got to the hotel on a Mon night at about 6pm. This location is a little confusing as it shares space with an AC Hotel. The lobby is actually on the 2nd floor. I checked in and found my room, 1711, to be the first room outside the elevator lobby. I had to leave right away for a business dinner so did not pay any attention to it. Got back at 9 and went to bed only to get woken up immediately by what I thought was thunder. Turns out it was the elevators going up and down which it did until after midnight. I had to get up and be out of the hotel by 6:30 so when I went down in the morning there was no one at the Residence desk and a sign saying go to the AC lobby desk. I asked to speak to the Mgr and was told he/she was not in yet. The clerk gave me a card and told me she would have the Mgr call me. I never got a call and I have left 2 voicemails and sent an email and still no response.  This is the worst customer service I have ever experienced at a Marriott property. My recommendation to anyone staying here is to make sure your room number does not end in 11, or you will not get any sleep until after midnight. MoreShow less</t>
+  </si>
+  <si>
+    <t>AC Hotel D, Guest Relations Manager at Residence Inn Dallas Downtown, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite member and have been so for many years. I have to say this is the first time an issue I had has been totally ignored by the hotel manager. I reserved the room several weeks in advance and got to the hotel on a Mon night at about 6pm. This location is a little confusing as it shares space with an AC Hotel. The lobby is actually on the 2nd floor. I checked in and found my room, 1711, to be the first room outside the elevator lobby. I had to leave right away for a business dinner so did not pay any attention to it. Got back at 9 and went to bed only to get woken up immediately by what I thought was thunder. Turns out it was the elevators going up and down which it did until after midnight. I had to get up and be out of the hotel by 6:30 so when I went down in the morning there was no one at the Residence desk and a sign saying go to the AC lobby desk. I asked to speak to the Mgr and was told he/she was not in yet. The clerk gave me a card and told me she would have the Mgr call me. I never got a call and I have left 2 voicemails and sent an email and still no response.  This is the worst...I am a Platinum Elite member and have been so for many years. I have to say this is the first time an issue I had has been totally ignored by the hotel manager. I reserved the room several weeks in advance and got to the hotel on a Mon night at about 6pm. This location is a little confusing as it shares space with an AC Hotel. The lobby is actually on the 2nd floor. I checked in and found my room, 1711, to be the first room outside the elevator lobby. I had to leave right away for a business dinner so did not pay any attention to it. Got back at 9 and went to bed only to get woken up immediately by what I thought was thunder. Turns out it was the elevators going up and down which it did until after midnight. I had to get up and be out of the hotel by 6:30 so when I went down in the morning there was no one at the Residence desk and a sign saying go to the AC lobby desk. I asked to speak to the Mgr and was told he/she was not in yet. The clerk gave me a card and told me she would have the Mgr call me. I never got a call and I have left 2 voicemails and sent an email and still no response.  This is the worst customer service I have ever experienced at a Marriott property. My recommendation to anyone staying here is to make sure your room number does not end in 11, or you will not get any sleep until after midnight. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r560941794-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>560941794</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>New &amp; Convenient Downtown Location</t>
+  </si>
+  <si>
+    <t>Was here one quick night in town on business. Half the hotel is a new AC by Marriott and half is a Residence Inn. Room was quiet and as expected. Within walking distance of most things happening downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>AC Hotel D, Guest Relations Manager at Residence Inn Dallas Downtown, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Was here one quick night in town on business. Half the hotel is a new AC by Marriott and half is a Residence Inn. Room was quiet and as expected. Within walking distance of most things happening downtown.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r559565685-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
@@ -324,9 +764,6 @@
     <t>My kids and I stayed here for 2 nights during a volleyball tournament at the convention center (15 min walk). The room was great, very contemporary and extremely clean. Lobby areas were very open and spacious and the included breakfast was plentiful. The only reason I gave this hotel 4 stars is because the shower did this funky rotation of hot and cold water so I never got a completely hot shower. Not sure if it's a water saving technique or not but it was annoying and definitely got me out of the shower quicker than normal. Other than that, the hotel was perfect and I'd stay again. Valet was great too!MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>AC Hotel D, Guest Relations Manager at Residence Inn Dallas Downtown, responded to this reviewResponded February 27, 2018</t>
   </si>
   <si>
@@ -336,9 +773,6 @@
     <t>My kids and I stayed here for 2 nights during a volleyball tournament at the convention center (15 min walk). The room was great, very contemporary and extremely clean. Lobby areas were very open and spacious and the included breakfast was plentiful. The only reason I gave this hotel 4 stars is because the shower did this funky rotation of hot and cold water so I never got a completely hot shower. Not sure if it's a water saving technique or not but it was annoying and definitely got me out of the shower quicker than normal. Other than that, the hotel was perfect and I'd stay again. Valet was great too!More</t>
   </si>
   <si>
-    <t>Tyler S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r547163100-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,18 +788,12 @@
     <t>New hotel that's not your typical residence inn, much nicer. The rooms are comfortable but seemed smaller than other residence inn's. The entrance is confusing because it's next to a new AC hotel. My only complaint as a lifetime platinum member is they said they upgraded my room, they definitely did not. It was exactly the king studio I paid for and was small. My friend, who doesn't have status had a much larger room but booked the same as I did. Third and final time Marriott has lied about upgrading, time to end my loyalty. MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>New hotel that's not your typical residence inn, much nicer. The rooms are comfortable but seemed smaller than other residence inn's. The entrance is confusing because it's next to a new AC hotel. My only complaint as a lifetime platinum member is they said they upgraded my room, they definitely did not. It was exactly the king studio I paid for and was small. My friend, who doesn't have status had a much larger room but booked the same as I did. Third and final time Marriott has lied about upgrading, time to end my loyalty. More</t>
   </si>
   <si>
-    <t>sperry_twiggins</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r544091311-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -385,6 +813,42 @@
   </si>
   <si>
     <t>Residence Inn is my favorite Marriott brand because I'm a miser. I like not paying for parking or breakfast (and sometimes dinner &amp; happy hour!). My spouse prefers JW, Ritz-Carlton, etc. but I think they nickel &amp; dime you to death. This Residence Inn charges for parking (valet, which is nice) at least as of November, 2017. It may be that they will change this policy when they finish with their garage construction project. Breakfast is included. Typical fruit, eggs, sausage, bacon, spinach, yogurt, and lots of carb choices. Good tea.Since it shares space with the AC Hotel, it's a fresh, elegant space. The rooms have trendy furniture &amp; surfaces. The staff was SUPERLATIVE with meeting my annoying requests. Marriott just seems to keep outdoing itself with its personnel. Do allow plenty of time for them to fetch your car before you head to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r542743443-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>542743443</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Great Stay at the Residence Inn Dallas</t>
+  </si>
+  <si>
+    <t>Was in town for a business trip in mid November and stayed at the new residence inn.its an interesting setup as the property is shared by the Residence and the AC hotel.  The ground floor lobby and bar are actually the AC's, you need to go to the 2nd floor for the Residence Inn.Check in went OK, there was a little snafu with our cards not working, but after returning to the lobby, the nice woman who checked us in followed us back to our rooms to make sure the cards worked, and they did.The rooms are well appointed, the internet works very well, and the TVs have the option to log in to your netflix, hulu, etc.The breakfast was fine, nothing to write home about, but the Texas shaped make your own waffles were a nice touch.The Neighborhood has some great restaraunt options.  We really enjoyed CBD at the nearby Joule hotel.The bar downstairs at the AC hotel is nice and new, with a modern vibe. Pretty mellow, but great for a nightcap.The valet system was great.  They text you a link and you can click it when you are ready to go.All in all a great stay and if I was going to be in dallas and was budgeted for a mid-tier hotel, I would choose the residence again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was in town for a business trip in mid November and stayed at the new residence inn.its an interesting setup as the property is shared by the Residence and the AC hotel.  The ground floor lobby and bar are actually the AC's, you need to go to the 2nd floor for the Residence Inn.Check in went OK, there was a little snafu with our cards not working, but after returning to the lobby, the nice woman who checked us in followed us back to our rooms to make sure the cards worked, and they did.The rooms are well appointed, the internet works very well, and the TVs have the option to log in to your netflix, hulu, etc.The breakfast was fine, nothing to write home about, but the Texas shaped make your own waffles were a nice touch.The Neighborhood has some great restaraunt options.  We really enjoyed CBD at the nearby Joule hotel.The bar downstairs at the AC hotel is nice and new, with a modern vibe. Pretty mellow, but great for a nightcap.The valet system was great.  They text you a link and you can click it when you are ready to go.All in all a great stay and if I was going to be in dallas and was budgeted for a mid-tier hotel, I would choose the residence again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204410-r542424686-Residence_Inn_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>542424686</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Brand new!!</t>
+  </si>
+  <si>
+    <t>They've only been open for a month so everything is top notch at this property. I was attending a conference nearby, and this hotel was only a 7-minute walk from many of the downtown Dallas attractions, resturarants, bars, etc. The rooms have hardwood flooring with throw rugs, modern kitchenettes with microwaves and dishwashers, a very nice sectional and huge desk. The bathrooms are awesome and huge with a very large shower. As is the case most of the time, the Marriott staff was top notch and very helpful. If ever in downtown Dallas, I'd consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>They've only been open for a month so everything is top notch at this property. I was attending a conference nearby, and this hotel was only a 7-minute walk from many of the downtown Dallas attractions, resturarants, bars, etc. The rooms have hardwood flooring with throw rugs, modern kitchenettes with microwaves and dishwashers, a very nice sectional and huge desk. The bathrooms are awesome and huge with a very large shower. As is the case most of the time, the Marriott staff was top notch and very helpful. If ever in downtown Dallas, I'd consider staying here again.More</t>
   </si>
 </sst>
 </file>
@@ -889,114 +1353,110 @@
       <c r="A2" t="n">
         <v>66244</v>
       </c>
-      <c r="B2" t="n">
-        <v>5544</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66244</v>
       </c>
-      <c r="B3" t="n">
-        <v>1753</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="n">
         <v>4</v>
@@ -1004,131 +1464,119 @@
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66244</v>
       </c>
-      <c r="B4" t="n">
-        <v>175680</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66244</v>
       </c>
-      <c r="B5" t="n">
-        <v>175681</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1142,115 +1590,113 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66244</v>
       </c>
-      <c r="B6" t="n">
-        <v>3064</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66244</v>
       </c>
-      <c r="B7" t="n">
-        <v>169586</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1264,54 +1710,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66244</v>
       </c>
-      <c r="B8" t="n">
-        <v>35570</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1322,61 +1764,53 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>103</v>
-      </c>
-      <c r="X8" t="s">
-        <v>104</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66244</v>
       </c>
-      <c r="B9" t="n">
-        <v>8197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1387,85 +1821,1638 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" t="s">
-        <v>104</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66244</v>
       </c>
-      <c r="B10" t="n">
-        <v>175682</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
         <v>103</v>
       </c>
-      <c r="X10" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
         <v>104</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>112</v>
+      </c>
+      <c r="X15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>171</v>
+      </c>
+      <c r="X20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>171</v>
+      </c>
+      <c r="X21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>138</v>
+      </c>
+      <c r="O26" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>138</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>138</v>
+      </c>
+      <c r="O28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>227</v>
+      </c>
+      <c r="X29" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>236</v>
+      </c>
+      <c r="X30" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>244</v>
+      </c>
+      <c r="X31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>203</v>
+      </c>
+      <c r="O32" t="s">
+        <v>252</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>244</v>
+      </c>
+      <c r="X32" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>244</v>
+      </c>
+      <c r="X33" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>244</v>
+      </c>
+      <c r="X34" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66244</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>244</v>
+      </c>
+      <c r="X35" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
